--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5C7381-2583-4B29-854A-5FED5B8B1645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76D1829-DC5F-419C-94C2-8094EA6AA1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="11070" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>Code Front-end "View all project listings prepare to deploy" app</t>
   </si>
   <si>
-    <t>Code Front-end "View all project listings has deployed" app</t>
-  </si>
-  <si>
     <t>Code Back-end "View all project listings" app</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
   </si>
   <si>
     <t>Code Back-end "View all project listings prepare to deploy" app</t>
-  </si>
-  <si>
-    <t>Code Back-end "View all project listings has deployed" app</t>
   </si>
   <si>
     <t>Code Front-end, back-end "View all project listings" website</t>
@@ -283,6 +277,12 @@
   </si>
   <si>
     <t>Create schedule module 2</t>
+  </si>
+  <si>
+    <t>Code Front-end "View all project listings has deployed", "View detail project" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "View all project listings has deployed" , "View detail project" app</t>
   </si>
 </sst>
 </file>
@@ -995,6 +995,15 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,15 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1222,7 +1222,7 @@
                   <c:v>Code Front-end "View all project listings prepare to deploy" app</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Code Front-end "View all project listings has deployed" app</c:v>
+                  <c:v>Code Front-end "View all project listings has deployed", "View detail project" app</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Code Back-end "View all project listings" app</c:v>
@@ -1234,7 +1234,7 @@
                   <c:v>Code Back-end "View all project listings prepare to deploy" app</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Code Back-end "View all project listings has deployed" app</c:v>
+                  <c:v>Code Back-end "View all project listings has deployed" , "View detail project" app</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Code Front-end, back-end "View all project listings" website</c:v>
@@ -2898,7 +2898,7 @@
                   <c:v>Code Front-end "View all project listings prepare to deploy" app</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Code Front-end "View all project listings has deployed" app</c:v>
+                  <c:v>Code Front-end "View all project listings has deployed", "View detail project" app</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Code Back-end "View all project listings" app</c:v>
@@ -2910,7 +2910,7 @@
                   <c:v>Code Back-end "View all project listings prepare to deploy" app</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Code Back-end "View all project listings has deployed" app</c:v>
+                  <c:v>Code Back-end "View all project listings has deployed" , "View detail project" app</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Code Front-end, back-end "View all project listings" website</c:v>
@@ -4969,18 +4969,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="62" t="s">
-        <v>71</v>
+      <c r="A1" s="65" t="s">
+        <v>69</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
@@ -4999,16 +4999,16 @@
       <c r="Z1" s="38"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="38"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
@@ -5027,24 +5027,24 @@
       <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="41"/>
       <c r="L3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="69"/>
+      <c r="N3" s="72"/>
       <c r="O3" s="43"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
@@ -5059,24 +5059,24 @@
       <c r="Z3" s="38"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="41"/>
       <c r="L4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="69"/>
+      <c r="N4" s="72"/>
       <c r="O4" s="43"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
@@ -5091,24 +5091,24 @@
       <c r="Z4" s="38"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="41"/>
       <c r="L5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="68" t="s">
-        <v>72</v>
+      <c r="M5" s="71" t="s">
+        <v>70</v>
       </c>
-      <c r="N5" s="69"/>
+      <c r="N5" s="72"/>
       <c r="O5" s="43"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
@@ -5123,24 +5123,24 @@
       <c r="Z5" s="38"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="41"/>
       <c r="L6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="68" t="s">
+      <c r="M6" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="69"/>
+      <c r="N6" s="72"/>
       <c r="O6" s="43"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
@@ -5155,24 +5155,24 @@
       <c r="Z6" s="38"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="41"/>
       <c r="L7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="70">
+      <c r="M7" s="73">
         <v>43508</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="74"/>
       <c r="O7" s="43"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
@@ -5187,16 +5187,16 @@
       <c r="Z7" s="38"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="38"/>
       <c r="L8" s="43"/>
       <c r="M8" s="43"/>
@@ -5215,16 +5215,16 @@
       <c r="Z8" s="38"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="38"/>
       <c r="L9" s="43"/>
       <c r="M9" s="43"/>
@@ -5243,16 +5243,16 @@
       <c r="Z9" s="38"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="38"/>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
@@ -5271,23 +5271,23 @@
       <c r="Z10" s="38"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="41"/>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="77"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
@@ -5301,16 +5301,16 @@
       <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="41"/>
       <c r="L12" s="46" t="s">
         <v>32</v>
@@ -5337,16 +5337,16 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="41"/>
       <c r="L13" s="47" t="s">
         <v>36</v>
@@ -5358,7 +5358,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
@@ -5373,16 +5373,16 @@
       <c r="Z13" s="38"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="41"/>
       <c r="L14" s="51"/>
       <c r="M14" s="52"/>
@@ -5401,16 +5401,16 @@
       <c r="Z14" s="38"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="41"/>
       <c r="L15" s="51"/>
       <c r="M15" s="52"/>
@@ -5429,16 +5429,16 @@
       <c r="Z15" s="38"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="41"/>
       <c r="L16" s="53"/>
       <c r="M16" s="54"/>
@@ -5457,16 +5457,16 @@
       <c r="Z16" s="38"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="41"/>
       <c r="L17" s="53"/>
       <c r="M17" s="54"/>
@@ -5485,16 +5485,16 @@
       <c r="Z17" s="38"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
       <c r="K18" s="41"/>
       <c r="L18" s="53"/>
       <c r="M18" s="54"/>
@@ -5513,16 +5513,16 @@
       <c r="Z18" s="38"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="41"/>
       <c r="L19" s="53"/>
       <c r="M19" s="54"/>
@@ -5541,16 +5541,16 @@
       <c r="Z19" s="38"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="41"/>
       <c r="L20" s="53"/>
       <c r="M20" s="54"/>
@@ -33029,8 +33029,8 @@
   </sheetPr>
   <dimension ref="A2:S99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33097,7 +33097,7 @@
         <f t="shared" ref="E4:E31" si="0">D4-C4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="23">
@@ -33125,7 +33125,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="23">
@@ -33153,7 +33153,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="23">
@@ -33181,7 +33181,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="23">
@@ -33209,8 +33209,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F8" s="75" t="s">
-        <v>68</v>
+      <c r="F8" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G8" s="23">
         <v>10</v>
@@ -33237,8 +33237,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F9" s="75" t="s">
-        <v>68</v>
+      <c r="F9" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G9" s="23">
         <v>20</v>
@@ -33265,8 +33265,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F10" s="75" t="s">
-        <v>68</v>
+      <c r="F10" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G10" s="23">
         <v>20</v>
@@ -33293,8 +33293,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F11" s="75" t="s">
-        <v>68</v>
+      <c r="F11" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G11" s="23">
         <v>28</v>
@@ -33321,8 +33321,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F12" s="75" t="s">
-        <v>68</v>
+      <c r="F12" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G12" s="23">
         <v>20</v>
@@ -33349,8 +33349,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F13" s="75" t="s">
-        <v>68</v>
+      <c r="F13" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G13" s="23">
         <v>20</v>
@@ -33377,7 +33377,7 @@
         <f t="shared" ref="E14" si="1">D14-C14</f>
         <v>4</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="23">
@@ -33405,7 +33405,7 @@
         <f t="shared" ref="E15:E18" si="2">D15-C15</f>
         <v>4</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="23">
@@ -33433,7 +33433,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="23">
@@ -33446,7 +33446,7 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="28" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>16</v>
@@ -33461,8 +33461,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F17" s="75" t="s">
-        <v>68</v>
+      <c r="F17" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G17" s="23">
         <v>80</v>
@@ -33474,7 +33474,7 @@
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="61" t="s">
         <v>18</v>
@@ -33489,7 +33489,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="23">
@@ -33502,7 +33502,7 @@
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1">
       <c r="A19" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="61" t="s">
         <v>18</v>
@@ -33517,7 +33517,7 @@
         <f t="shared" ref="E19:E24" si="3">D19-C19</f>
         <v>4</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="23">
@@ -33530,7 +33530,7 @@
     </row>
     <row r="20" spans="1:9" ht="16.5" customHeight="1">
       <c r="A20" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="61" t="s">
         <v>18</v>
@@ -33545,7 +33545,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G20" s="23">
@@ -33558,7 +33558,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="28" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B21" s="61" t="s">
         <v>18</v>
@@ -33573,8 +33573,8 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F21" s="75" t="s">
-        <v>68</v>
+      <c r="F21" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G21" s="23">
         <v>80</v>
@@ -33586,7 +33586,7 @@
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>19</v>
@@ -33601,7 +33601,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="23">
@@ -33614,7 +33614,7 @@
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>39</v>
@@ -33629,7 +33629,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="F23" s="77" t="s">
+      <c r="F23" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="23">
@@ -33642,7 +33642,7 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>19</v>
@@ -33657,8 +33657,8 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F24" s="75" t="s">
-        <v>68</v>
+      <c r="F24" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G24" s="23">
         <v>60</v>
@@ -33670,7 +33670,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>20</v>
@@ -33685,7 +33685,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="23">
@@ -33698,7 +33698,7 @@
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>20</v>
@@ -33713,7 +33713,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F26" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="23">
@@ -33726,7 +33726,7 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>20</v>
@@ -33741,7 +33741,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G27" s="23">
@@ -33754,7 +33754,7 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>20</v>
@@ -33769,8 +33769,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F28" s="75" t="s">
-        <v>68</v>
+      <c r="F28" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G28" s="23">
         <v>10</v>
@@ -33782,7 +33782,7 @@
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>20</v>
@@ -33797,8 +33797,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F29" s="75" t="s">
-        <v>68</v>
+      <c r="F29" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G29" s="23">
         <v>20</v>
@@ -33810,7 +33810,7 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>20</v>
@@ -33825,8 +33825,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F30" s="75" t="s">
-        <v>68</v>
+      <c r="F30" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G30" s="23">
         <v>20</v>
@@ -33838,7 +33838,7 @@
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>20</v>
@@ -33853,8 +33853,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F31" s="75" t="s">
-        <v>68</v>
+      <c r="F31" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="G31" s="23">
         <v>20</v>
@@ -33866,13 +33866,13 @@
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="25">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76D1829-DC5F-419C-94C2-8094EA6AA1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB15BD8-3A29-432E-8C6F-7C0A9223037F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="11070" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <sheet name="Tổng quan" sheetId="9" r:id="rId5"/>
     <sheet name="Ngân sách" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33029,8 +33031,8 @@
   </sheetPr>
   <dimension ref="A2:S99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB15BD8-3A29-432E-8C6F-7C0A9223037F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Tổng quan" sheetId="9" r:id="rId5"/>
     <sheet name="Ngân sách" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -249,9 +248,6 @@
     <t>Test  "Edit projects" website</t>
   </si>
   <si>
-    <t>chưa thực hiện</t>
-  </si>
-  <si>
     <t>Kết thúc module 2</t>
   </si>
   <si>
@@ -290,8 +286,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,20 +420,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF92D050"/>
       <name val="Century Gothic"/>
@@ -504,7 +486,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="2" tint="-0.249977111117893"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -814,7 +796,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -918,131 +900,125 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1059,7 +1035,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1081,7 +1057,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1160,8 +1136,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1367,7 +1344,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3439-4363-BD7E-1A05BAB9B14A}"/>
             </c:ext>
@@ -1401,7 +1378,7 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1411,7 +1388,7 @@
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1421,7 +1398,7 @@
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1431,7 +1408,7 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1441,7 +1418,7 @@
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1451,7 +1428,7 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1461,7 +1438,7 @@
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1471,7 +1448,7 @@
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1481,7 +1458,7 @@
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000012-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1491,7 +1468,7 @@
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1501,7 +1478,7 @@
             <c:idx val="10"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000016-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1511,7 +1488,7 @@
             <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000018-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1521,7 +1498,7 @@
             <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001A-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1531,7 +1508,7 @@
             <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001C-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1541,7 +1518,7 @@
             <c:idx val="14"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001E-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1563,10 +1540,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1585,10 +1564,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1607,10 +1588,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1629,10 +1612,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1651,10 +1636,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1673,10 +1660,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1695,10 +1684,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1717,10 +1708,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1739,10 +1732,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1761,10 +1756,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1783,10 +1780,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1805,10 +1804,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1827,10 +1828,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1849,10 +1852,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1871,10 +1876,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-3439-4363-BD7E-1A05BAB9B14A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1893,10 +1900,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-63C7-42F2-B7D8-CC115B0EE38E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1915,10 +1924,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-63C7-42F2-B7D8-CC115B0EE38E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1937,10 +1948,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-63C7-42F2-B7D8-CC115B0EE38E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1959,10 +1972,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-63C7-42F2-B7D8-CC115B0EE38E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1981,10 +1996,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-63C7-42F2-B7D8-CC115B0EE38E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2003,10 +2020,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-63C7-42F2-B7D8-CC115B0EE38E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2025,10 +2044,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-63C7-42F2-B7D8-CC115B0EE38E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2047,10 +2068,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-63C7-42F2-B7D8-CC115B0EE38E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2069,10 +2092,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-63C7-42F2-B7D8-CC115B0EE38E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2091,10 +2116,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-63C7-42F2-B7D8-CC115B0EE38E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2113,10 +2140,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-63C7-42F2-B7D8-CC115B0EE38E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2135,10 +2164,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-2DA9-4F67-BB25-8D495E507FEB}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2157,10 +2188,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-2DA9-4F67-BB25-8D495E507FEB}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2179,10 +2212,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-2DA9-4F67-BB25-8D495E507FEB}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2201,11 +2236,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2223,11 +2258,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2245,11 +2280,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2267,11 +2302,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2289,11 +2324,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2311,11 +2346,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2333,11 +2368,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2355,11 +2390,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2377,11 +2412,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001B-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2399,11 +2434,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2421,11 +2456,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2443,11 +2478,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001D-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2465,11 +2500,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2487,11 +2522,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2509,11 +2544,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2531,11 +2566,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2553,11 +2588,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000022-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2575,11 +2610,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000024-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2597,11 +2632,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000023-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2619,11 +2654,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2641,11 +2676,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000027-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2663,11 +2698,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2685,11 +2720,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000028-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2707,11 +2742,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002D-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2729,11 +2764,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002C-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2751,11 +2786,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002B-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2773,11 +2808,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002A-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2795,11 +2830,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000029-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2836,7 +2871,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3046,7 +3081,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001F-3439-4363-BD7E-1A05BAB9B14A}"/>
             </c:ext>
@@ -3063,11 +3098,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="228589600"/>
-        <c:axId val="228590160"/>
+        <c:axId val="1082991808"/>
+        <c:axId val="1082998336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228589600"/>
+        <c:axId val="1082991808"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3124,7 +3159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228590160"/>
+        <c:crossAx val="1082998336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3132,7 +3167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228590160"/>
+        <c:axId val="1082998336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +3177,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228589600"/>
+        <c:crossAx val="1082991808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3192,7 +3227,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3261,7 +3296,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-68D8-450F-A8FC-504D5BD3BE17}"/>
               </c:ext>
@@ -3276,7 +3311,7 @@
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-68D8-450F-A8FC-504D5BD3BE17}"/>
               </c:ext>
@@ -3291,7 +3326,7 @@
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-68D8-450F-A8FC-504D5BD3BE17}"/>
               </c:ext>
@@ -3306,7 +3341,7 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-021A-4B9D-9DD6-D042F25F714E}"/>
               </c:ext>
@@ -3323,7 +3358,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-021A-4B9D-9DD6-D042F25F714E}"/>
               </c:ext>
@@ -3376,7 +3411,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-68D8-450F-A8FC-504D5BD3BE17}"/>
             </c:ext>
@@ -3391,11 +3426,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="228119280"/>
-        <c:axId val="228119840"/>
+        <c:axId val="1082994528"/>
+        <c:axId val="1082992896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228119280"/>
+        <c:axId val="1082994528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3417,7 +3452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228119840"/>
+        <c:crossAx val="1082992896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3425,7 +3460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228119840"/>
+        <c:axId val="1082992896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3448,7 +3483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228119280"/>
+        <c:crossAx val="1082994528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3475,7 +3510,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3532,7 +3567,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-2412-4898-AD3A-BD858630642F}"/>
               </c:ext>
@@ -3546,7 +3581,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-2412-4898-AD3A-BD858630642F}"/>
               </c:ext>
@@ -3560,7 +3595,7 @@
                 <a:srgbClr val="FFE70E"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-2412-4898-AD3A-BD858630642F}"/>
               </c:ext>
@@ -3576,7 +3611,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-2412-4898-AD3A-BD858630642F}"/>
               </c:ext>
@@ -3623,7 +3658,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-2412-4898-AD3A-BD858630642F}"/>
             </c:ext>
@@ -3679,7 +3714,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3753,7 +3788,7 @@
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1EC9-4AD9-8BAF-FB4269D65AD4}"/>
               </c:ext>
@@ -3770,7 +3805,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-1EC9-4AD9-8BAF-FB4269D65AD4}"/>
               </c:ext>
@@ -3799,7 +3834,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1EC9-4AD9-8BAF-FB4269D65AD4}"/>
             </c:ext>
@@ -3815,11 +3850,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="228594640"/>
-        <c:axId val="228595200"/>
+        <c:axId val="1082995616"/>
+        <c:axId val="1082988000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228594640"/>
+        <c:axId val="1082995616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,7 +3876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228595200"/>
+        <c:crossAx val="1082988000"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3849,7 +3884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228595200"/>
+        <c:axId val="1082988000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90000"/>
@@ -3874,7 +3909,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228594640"/>
+        <c:crossAx val="1082995616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -4480,7 +4515,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E43A0A9-67EC-43C1-9ECC-E21F9E4B0854}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E43A0A9-67EC-43C1-9ECC-E21F9E4B0854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4523,7 +4558,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95561712-ECE7-49C0-9DAF-397357D17559}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95561712-ECE7-49C0-9DAF-397357D17559}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4566,7 +4601,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1074DB-9B55-4D7B-9A74-3A55660680AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1074DB-9B55-4D7B-9A74-3A55660680AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4609,7 +4644,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D473A46C-08F3-44BA-8676-6E6C18ED2CA8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D473A46C-08F3-44BA-8676-6E6C18ED2CA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4953,7 +4988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401903B-2B10-43DB-8751-463621604DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4971,18 +5006,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="65" t="s">
-        <v>69</v>
+      <c r="A1" s="63" t="s">
+        <v>68</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
@@ -5001,16 +5036,16 @@
       <c r="Z1" s="38"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="38"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
@@ -5029,24 +5064,24 @@
       <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="41"/>
       <c r="L3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="72"/>
+      <c r="N3" s="70"/>
       <c r="O3" s="43"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
@@ -5061,24 +5096,24 @@
       <c r="Z3" s="38"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="41"/>
       <c r="L4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="72"/>
+      <c r="N4" s="70"/>
       <c r="O4" s="43"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
@@ -5093,24 +5128,24 @@
       <c r="Z4" s="38"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="41"/>
       <c r="L5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="71" t="s">
-        <v>70</v>
+      <c r="M5" s="69" t="s">
+        <v>69</v>
       </c>
-      <c r="N5" s="72"/>
+      <c r="N5" s="70"/>
       <c r="O5" s="43"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
@@ -5125,24 +5160,24 @@
       <c r="Z5" s="38"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="41"/>
       <c r="L6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="71" t="s">
+      <c r="M6" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="72"/>
+      <c r="N6" s="70"/>
       <c r="O6" s="43"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
@@ -5157,24 +5192,24 @@
       <c r="Z6" s="38"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="41"/>
       <c r="L7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="71">
         <v>43508</v>
       </c>
-      <c r="N7" s="74"/>
+      <c r="N7" s="72"/>
       <c r="O7" s="43"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
@@ -5189,16 +5224,16 @@
       <c r="Z7" s="38"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="38"/>
       <c r="L8" s="43"/>
       <c r="M8" s="43"/>
@@ -5217,16 +5252,16 @@
       <c r="Z8" s="38"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
       <c r="K9" s="38"/>
       <c r="L9" s="43"/>
       <c r="M9" s="43"/>
@@ -5245,16 +5280,16 @@
       <c r="Z9" s="38"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
       <c r="K10" s="38"/>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
@@ -5273,23 +5308,23 @@
       <c r="Z10" s="38"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="41"/>
-      <c r="L11" s="75" t="s">
+      <c r="L11" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="77"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="75"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
@@ -5303,16 +5338,16 @@
       <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="41"/>
       <c r="L12" s="46" t="s">
         <v>32</v>
@@ -5339,16 +5374,16 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
       <c r="K13" s="41"/>
       <c r="L13" s="47" t="s">
         <v>36</v>
@@ -5360,7 +5395,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
@@ -5375,16 +5410,16 @@
       <c r="Z13" s="38"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
       <c r="K14" s="41"/>
       <c r="L14" s="51"/>
       <c r="M14" s="52"/>
@@ -5403,16 +5438,16 @@
       <c r="Z14" s="38"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
       <c r="K15" s="41"/>
       <c r="L15" s="51"/>
       <c r="M15" s="52"/>
@@ -5431,16 +5466,16 @@
       <c r="Z15" s="38"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="41"/>
       <c r="L16" s="53"/>
       <c r="M16" s="54"/>
@@ -5459,16 +5494,16 @@
       <c r="Z16" s="38"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
       <c r="K17" s="41"/>
       <c r="L17" s="53"/>
       <c r="M17" s="54"/>
@@ -5487,16 +5522,16 @@
       <c r="Z17" s="38"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
       <c r="K18" s="41"/>
       <c r="L18" s="53"/>
       <c r="M18" s="54"/>
@@ -5515,16 +5550,16 @@
       <c r="Z18" s="38"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="41"/>
       <c r="L19" s="53"/>
       <c r="M19" s="54"/>
@@ -5543,16 +5578,16 @@
       <c r="Z19" s="38"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="41"/>
       <c r="L20" s="53"/>
       <c r="M20" s="54"/>
@@ -33025,14 +33060,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A2:S99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33099,8 +33134,8 @@
         <f t="shared" ref="E4:E31" si="0">D4-C4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>3</v>
+      <c r="F4" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G4" s="23">
         <v>20</v>
@@ -33127,8 +33162,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F5" s="63" t="s">
-        <v>3</v>
+      <c r="F5" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G5" s="23">
         <v>20</v>
@@ -33155,8 +33190,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F6" s="63" t="s">
-        <v>3</v>
+      <c r="F6" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="23">
         <v>10</v>
@@ -33183,8 +33218,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="64" t="s">
-        <v>2</v>
+      <c r="F7" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G7" s="23">
         <v>10</v>
@@ -33212,7 +33247,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G8" s="23">
         <v>10</v>
@@ -33240,7 +33275,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G9" s="23">
         <v>20</v>
@@ -33268,7 +33303,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G10" s="23">
         <v>20</v>
@@ -33296,7 +33331,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G11" s="23">
         <v>28</v>
@@ -33324,7 +33359,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G12" s="23">
         <v>20</v>
@@ -33352,7 +33387,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G13" s="23">
         <v>20</v>
@@ -33379,8 +33414,8 @@
         <f t="shared" ref="E14" si="1">D14-C14</f>
         <v>4</v>
       </c>
-      <c r="F14" s="63" t="s">
-        <v>3</v>
+      <c r="F14" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G14" s="23">
         <v>40</v>
@@ -33407,8 +33442,8 @@
         <f t="shared" ref="E15:E18" si="2">D15-C15</f>
         <v>4</v>
       </c>
-      <c r="F15" s="63" t="s">
-        <v>3</v>
+      <c r="F15" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G15" s="23">
         <v>40</v>
@@ -33435,8 +33470,8 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F16" s="64" t="s">
-        <v>2</v>
+      <c r="F16" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G16" s="23">
         <v>40</v>
@@ -33448,7 +33483,7 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>16</v>
@@ -33464,7 +33499,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G17" s="23">
         <v>80</v>
@@ -33491,8 +33526,8 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F18" s="63" t="s">
-        <v>3</v>
+      <c r="F18" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G18" s="23">
         <v>40</v>
@@ -33519,8 +33554,8 @@
         <f t="shared" ref="E19:E24" si="3">D19-C19</f>
         <v>4</v>
       </c>
-      <c r="F19" s="63" t="s">
-        <v>3</v>
+      <c r="F19" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G19" s="23">
         <v>40</v>
@@ -33547,8 +33582,8 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F20" s="64" t="s">
-        <v>2</v>
+      <c r="F20" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G20" s="23">
         <v>40</v>
@@ -33560,7 +33595,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="61" t="s">
         <v>18</v>
@@ -33576,7 +33611,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G21" s="23">
         <v>80</v>
@@ -33603,8 +33638,8 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="F22" s="64" t="s">
-        <v>2</v>
+      <c r="F22" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G22" s="23">
         <v>70</v>
@@ -33631,8 +33666,8 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="F23" s="64" t="s">
-        <v>2</v>
+      <c r="F23" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G23" s="23">
         <v>70</v>
@@ -33660,7 +33695,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G24" s="23">
         <v>60</v>
@@ -33687,8 +33722,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F25" s="63" t="s">
-        <v>3</v>
+      <c r="F25" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G25" s="23">
         <v>20</v>
@@ -33715,8 +33750,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F26" s="63" t="s">
-        <v>3</v>
+      <c r="F26" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G26" s="23">
         <v>10</v>
@@ -33743,8 +33778,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F27" s="64" t="s">
-        <v>2</v>
+      <c r="F27" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="G27" s="23">
         <v>20</v>
@@ -33772,7 +33807,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G28" s="23">
         <v>10</v>
@@ -33800,7 +33835,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G29" s="23">
         <v>20</v>
@@ -33828,7 +33863,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G30" s="23">
         <v>20</v>
@@ -33856,7 +33891,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="62" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G31" s="23">
         <v>20</v>
@@ -33868,13 +33903,13 @@
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="25">
@@ -34547,10 +34582,10 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B31 B4:B13" xr:uid="{A831E3A7-8EBE-4F66-90A5-3CD1673F4CA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B31 B4:B13">
       <formula1>"Đạt Huỳnh, Anh Minh, Quang Vương, Quốc Nhân, Như Phương"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H31" xr:uid="{D6902BE1-7239-4E55-819C-7F837102A60E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H31">
       <formula1>"Cao, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -34560,7 +34595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7E5121-6FB5-40E7-9C8D-529891380B18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -34575,7 +34610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3409844F-016C-4A33-8CED-3AF7F14E6F8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34590,7 +34625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBF9D61-E033-4715-BD68-E02D67CFB821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34605,7 +34640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215E75F3-12D4-4C15-9D8F-19B25423DAE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10EF7A6-7137-4AB7-B186-B1FFC9E1852E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D150D85E-CE3B-45C1-9504-933BFB628D79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>Kết thúc module 2</t>
-  </si>
-  <si>
-    <t>Tổng thời gian = 28 ngày</t>
   </si>
   <si>
     <r>
@@ -1003,6 +1000,27 @@
     <xf numFmtId="9" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1041,27 +1059,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3059,7 +3056,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4989,18 +4986,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="59" t="s">
-        <v>68</v>
+      <c r="A1" s="66" t="s">
+        <v>67</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
@@ -5019,16 +5016,16 @@
       <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="34"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
@@ -5047,24 +5044,24 @@
       <c r="Z2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
       <c r="K3" s="37"/>
       <c r="L3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="66"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="39"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
@@ -5079,24 +5076,24 @@
       <c r="Z3" s="34"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="37"/>
       <c r="L4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="66"/>
+      <c r="N4" s="73"/>
       <c r="O4" s="39"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
@@ -5111,24 +5108,24 @@
       <c r="Z4" s="34"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="37"/>
       <c r="L5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="65" t="s">
-        <v>69</v>
+      <c r="M5" s="72" t="s">
+        <v>68</v>
       </c>
-      <c r="N5" s="66"/>
+      <c r="N5" s="73"/>
       <c r="O5" s="39"/>
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
@@ -5143,24 +5140,24 @@
       <c r="Z5" s="34"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="37"/>
       <c r="L6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="66"/>
+      <c r="N6" s="73"/>
       <c r="O6" s="39"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -5175,24 +5172,24 @@
       <c r="Z6" s="34"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="37"/>
       <c r="L7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="74">
         <v>43508</v>
       </c>
-      <c r="N7" s="68"/>
+      <c r="N7" s="75"/>
       <c r="O7" s="39"/>
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
@@ -5207,16 +5204,16 @@
       <c r="Z7" s="34"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="34"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
@@ -5235,16 +5232,16 @@
       <c r="Z8" s="34"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="34"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -5263,16 +5260,16 @@
       <c r="Z9" s="34"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="34"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -5291,23 +5288,23 @@
       <c r="Z10" s="34"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="71"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
@@ -5321,16 +5318,16 @@
       <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="37"/>
       <c r="L12" s="42" t="s">
         <v>32</v>
@@ -5357,16 +5354,16 @@
       <c r="Z12" s="34"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="37"/>
       <c r="L13" s="43" t="s">
         <v>36</v>
@@ -5378,7 +5375,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
@@ -5393,16 +5390,16 @@
       <c r="Z13" s="34"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="37"/>
       <c r="L14" s="47"/>
       <c r="M14" s="48"/>
@@ -5421,16 +5418,16 @@
       <c r="Z14" s="34"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="37"/>
       <c r="L15" s="47"/>
       <c r="M15" s="48"/>
@@ -5449,16 +5446,16 @@
       <c r="Z15" s="34"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="37"/>
       <c r="L16" s="49"/>
       <c r="M16" s="50"/>
@@ -5477,16 +5474,16 @@
       <c r="Z16" s="34"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="37"/>
       <c r="L17" s="49"/>
       <c r="M17" s="50"/>
@@ -5505,16 +5502,16 @@
       <c r="Z17" s="34"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="37"/>
       <c r="L18" s="49"/>
       <c r="M18" s="50"/>
@@ -5533,16 +5530,16 @@
       <c r="Z18" s="34"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="37"/>
       <c r="L19" s="49"/>
       <c r="M19" s="50"/>
@@ -5561,16 +5558,16 @@
       <c r="Z19" s="34"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="37"/>
       <c r="L20" s="49"/>
       <c r="M20" s="50"/>
@@ -33049,13 +33046,13 @@
   </sheetPr>
   <dimension ref="A2:T99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="72"/>
+    <col min="1" max="1" width="11" style="59"/>
     <col min="2" max="2" width="77" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.75" style="3" customWidth="1"/>
@@ -33073,10 +33070,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>73</v>
+      <c r="A3" s="64" t="s">
+        <v>72</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -33105,10 +33102,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="78">
+      <c r="A4" s="65">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="61" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -33136,10 +33133,10 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="78">
+      <c r="A5" s="65">
         <v>2</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -33167,10 +33164,10 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="78">
+      <c r="A6" s="65">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="61" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -33198,10 +33195,10 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="78">
+      <c r="A7" s="65">
         <v>4</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="61" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -33229,10 +33226,10 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="78">
+      <c r="A8" s="65">
         <v>5</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="61" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -33260,10 +33257,10 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="78">
+      <c r="A9" s="65">
         <v>6</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="61" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -33291,10 +33288,10 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="78">
+      <c r="A10" s="65">
         <v>7</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="61" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -33322,10 +33319,10 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="78">
+      <c r="A11" s="65">
         <v>8</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="61" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -33353,10 +33350,10 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A12" s="78">
+      <c r="A12" s="65">
         <v>9</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="61" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -33384,10 +33381,10 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="78">
+      <c r="A13" s="65">
         <v>10</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="61" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -33415,10 +33412,10 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A14" s="78">
+      <c r="A14" s="65">
         <v>11</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="62" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -33446,10 +33443,10 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A15" s="78">
+      <c r="A15" s="65">
         <v>12</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -33477,10 +33474,10 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A16" s="78">
+      <c r="A16" s="65">
         <v>13</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="62" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -33508,11 +33505,11 @@
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="78">
+      <c r="A17" s="65">
         <v>14</v>
       </c>
-      <c r="B17" s="75" t="s">
-        <v>71</v>
+      <c r="B17" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>16</v>
@@ -33539,10 +33536,10 @@
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A18" s="78">
+      <c r="A18" s="65">
         <v>15</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="62" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -33570,10 +33567,10 @@
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A19" s="78">
+      <c r="A19" s="65">
         <v>16</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="57" t="s">
@@ -33601,10 +33598,10 @@
       <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A20" s="78">
+      <c r="A20" s="65">
         <v>17</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="62" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -33632,11 +33629,11 @@
       <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="78">
+      <c r="A21" s="65">
         <v>18</v>
       </c>
-      <c r="B21" s="75" t="s">
-        <v>72</v>
+      <c r="B21" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>18</v>
@@ -33663,10 +33660,10 @@
       <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A22" s="78">
+      <c r="A22" s="65">
         <v>19</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="62" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -33694,10 +33691,10 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="A23" s="78">
+      <c r="A23" s="65">
         <v>20</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -33725,10 +33722,10 @@
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
-      <c r="A24" s="78">
+      <c r="A24" s="65">
         <v>21</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="62" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -33756,10 +33753,10 @@
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
-      <c r="A25" s="78">
+      <c r="A25" s="65">
         <v>22</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="63" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -33787,10 +33784,10 @@
       <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
-      <c r="A26" s="78">
+      <c r="A26" s="65">
         <v>23</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="63" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -33818,10 +33815,10 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
-      <c r="A27" s="78">
+      <c r="A27" s="65">
         <v>24</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="63" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -33849,10 +33846,10 @@
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
-      <c r="A28" s="78">
+      <c r="A28" s="65">
         <v>25</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="63" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -33880,10 +33877,10 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
-      <c r="A29" s="78">
+      <c r="A29" s="65">
         <v>26</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="63" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -33911,10 +33908,10 @@
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="78">
+      <c r="A30" s="65">
         <v>27</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="63" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -33942,10 +33939,10 @@
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
-      <c r="A31" s="78">
+      <c r="A31" s="65">
         <v>28</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="63" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -33980,8 +33977,9 @@
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="24" t="s">
-        <v>67</v>
+      <c r="F32" s="24">
+        <f>SUM(F4:F31)</f>
+        <v>91</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="24">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D150D85E-CE3B-45C1-9504-933BFB628D79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D993AE5-96AA-4AE1-A5C1-C91C65AD9DD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -33046,8 +33046,8 @@
   </sheetPr>
   <dimension ref="A2:T99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33130,7 +33130,9 @@
       <c r="I4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="22">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="65">
@@ -33161,7 +33163,9 @@
       <c r="I5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="22">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="65">
@@ -33192,7 +33196,9 @@
       <c r="I6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="22">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="65">
@@ -33223,7 +33229,9 @@
       <c r="I7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="22">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="65">
@@ -33254,7 +33262,9 @@
       <c r="I8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="J8" s="22">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="65">
@@ -33285,7 +33295,9 @@
       <c r="I9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="65">
@@ -33316,7 +33328,9 @@
       <c r="I10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="22">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="A11" s="65">
@@ -33347,7 +33361,9 @@
       <c r="I11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="22">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
       <c r="A12" s="65">
@@ -33378,7 +33394,9 @@
       <c r="I12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="22">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
       <c r="A13" s="65">
@@ -33409,7 +33427,9 @@
       <c r="I13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="22">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1">
       <c r="A14" s="65">
@@ -33989,7 +34009,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="24">
         <f>SUM(J4:J31)</f>
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module2_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10EF7A6-7137-4AB7-B186-B1FFC9E1852E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D993AE5-96AA-4AE1-A5C1-C91C65AD9DD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>Kết thúc module 2</t>
-  </si>
-  <si>
-    <t>Tổng thời gian = 28 ngày</t>
   </si>
   <si>
     <r>
@@ -1003,6 +1000,27 @@
     <xf numFmtId="9" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1041,27 +1059,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3059,7 +3056,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4989,18 +4986,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="59" t="s">
-        <v>68</v>
+      <c r="A1" s="66" t="s">
+        <v>67</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
@@ -5019,16 +5016,16 @@
       <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="34"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
@@ -5047,24 +5044,24 @@
       <c r="Z2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
       <c r="K3" s="37"/>
       <c r="L3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="66"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="39"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
@@ -5079,24 +5076,24 @@
       <c r="Z3" s="34"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="37"/>
       <c r="L4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="66"/>
+      <c r="N4" s="73"/>
       <c r="O4" s="39"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
@@ -5111,24 +5108,24 @@
       <c r="Z4" s="34"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="37"/>
       <c r="L5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="65" t="s">
-        <v>69</v>
+      <c r="M5" s="72" t="s">
+        <v>68</v>
       </c>
-      <c r="N5" s="66"/>
+      <c r="N5" s="73"/>
       <c r="O5" s="39"/>
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
@@ -5143,24 +5140,24 @@
       <c r="Z5" s="34"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="37"/>
       <c r="L6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="66"/>
+      <c r="N6" s="73"/>
       <c r="O6" s="39"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -5175,24 +5172,24 @@
       <c r="Z6" s="34"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="37"/>
       <c r="L7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="74">
         <v>43508</v>
       </c>
-      <c r="N7" s="68"/>
+      <c r="N7" s="75"/>
       <c r="O7" s="39"/>
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
@@ -5207,16 +5204,16 @@
       <c r="Z7" s="34"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="34"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
@@ -5235,16 +5232,16 @@
       <c r="Z8" s="34"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="34"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -5263,16 +5260,16 @@
       <c r="Z9" s="34"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="34"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -5291,23 +5288,23 @@
       <c r="Z10" s="34"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="71"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
@@ -5321,16 +5318,16 @@
       <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="37"/>
       <c r="L12" s="42" t="s">
         <v>32</v>
@@ -5357,16 +5354,16 @@
       <c r="Z12" s="34"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="37"/>
       <c r="L13" s="43" t="s">
         <v>36</v>
@@ -5378,7 +5375,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
@@ -5393,16 +5390,16 @@
       <c r="Z13" s="34"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="37"/>
       <c r="L14" s="47"/>
       <c r="M14" s="48"/>
@@ -5421,16 +5418,16 @@
       <c r="Z14" s="34"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="37"/>
       <c r="L15" s="47"/>
       <c r="M15" s="48"/>
@@ -5449,16 +5446,16 @@
       <c r="Z15" s="34"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="37"/>
       <c r="L16" s="49"/>
       <c r="M16" s="50"/>
@@ -5477,16 +5474,16 @@
       <c r="Z16" s="34"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="37"/>
       <c r="L17" s="49"/>
       <c r="M17" s="50"/>
@@ -5505,16 +5502,16 @@
       <c r="Z17" s="34"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="37"/>
       <c r="L18" s="49"/>
       <c r="M18" s="50"/>
@@ -5533,16 +5530,16 @@
       <c r="Z18" s="34"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="37"/>
       <c r="L19" s="49"/>
       <c r="M19" s="50"/>
@@ -5561,16 +5558,16 @@
       <c r="Z19" s="34"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="37"/>
       <c r="L20" s="49"/>
       <c r="M20" s="50"/>
@@ -33049,13 +33046,13 @@
   </sheetPr>
   <dimension ref="A2:T99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="72"/>
+    <col min="1" max="1" width="11" style="59"/>
     <col min="2" max="2" width="77" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.75" style="3" customWidth="1"/>
@@ -33073,10 +33070,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>73</v>
+      <c r="A3" s="64" t="s">
+        <v>72</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -33105,10 +33102,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="78">
+      <c r="A4" s="65">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="61" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -33133,13 +33130,15 @@
       <c r="I4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="22">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="78">
+      <c r="A5" s="65">
         <v>2</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -33164,13 +33163,15 @@
       <c r="I5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="22">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="78">
+      <c r="A6" s="65">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="61" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -33195,13 +33196,15 @@
       <c r="I6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="22">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="78">
+      <c r="A7" s="65">
         <v>4</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="61" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -33226,13 +33229,15 @@
       <c r="I7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="22">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="78">
+      <c r="A8" s="65">
         <v>5</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="61" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -33257,13 +33262,15 @@
       <c r="I8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="J8" s="22">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="78">
+      <c r="A9" s="65">
         <v>6</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="61" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -33288,13 +33295,15 @@
       <c r="I9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="78">
+      <c r="A10" s="65">
         <v>7</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="61" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -33319,13 +33328,15 @@
       <c r="I10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="22">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="78">
+      <c r="A11" s="65">
         <v>8</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="61" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -33350,13 +33361,15 @@
       <c r="I11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="22">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A12" s="78">
+      <c r="A12" s="65">
         <v>9</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="61" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -33381,13 +33394,15 @@
       <c r="I12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="22">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="78">
+      <c r="A13" s="65">
         <v>10</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="61" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -33412,13 +33427,15 @@
       <c r="I13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="22">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A14" s="78">
+      <c r="A14" s="65">
         <v>11</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="62" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -33446,10 +33463,10 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A15" s="78">
+      <c r="A15" s="65">
         <v>12</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -33477,10 +33494,10 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A16" s="78">
+      <c r="A16" s="65">
         <v>13</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="62" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -33508,11 +33525,11 @@
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="78">
+      <c r="A17" s="65">
         <v>14</v>
       </c>
-      <c r="B17" s="75" t="s">
-        <v>71</v>
+      <c r="B17" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>16</v>
@@ -33539,10 +33556,10 @@
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A18" s="78">
+      <c r="A18" s="65">
         <v>15</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="62" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -33570,10 +33587,10 @@
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A19" s="78">
+      <c r="A19" s="65">
         <v>16</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="57" t="s">
@@ -33601,10 +33618,10 @@
       <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A20" s="78">
+      <c r="A20" s="65">
         <v>17</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="62" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -33632,11 +33649,11 @@
       <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="78">
+      <c r="A21" s="65">
         <v>18</v>
       </c>
-      <c r="B21" s="75" t="s">
-        <v>72</v>
+      <c r="B21" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>18</v>
@@ -33663,10 +33680,10 @@
       <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A22" s="78">
+      <c r="A22" s="65">
         <v>19</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="62" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -33694,10 +33711,10 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="A23" s="78">
+      <c r="A23" s="65">
         <v>20</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -33725,10 +33742,10 @@
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
-      <c r="A24" s="78">
+      <c r="A24" s="65">
         <v>21</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="62" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -33756,10 +33773,10 @@
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
-      <c r="A25" s="78">
+      <c r="A25" s="65">
         <v>22</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="63" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -33787,10 +33804,10 @@
       <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
-      <c r="A26" s="78">
+      <c r="A26" s="65">
         <v>23</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="63" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -33818,10 +33835,10 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
-      <c r="A27" s="78">
+      <c r="A27" s="65">
         <v>24</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="63" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -33849,10 +33866,10 @@
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
-      <c r="A28" s="78">
+      <c r="A28" s="65">
         <v>25</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="63" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -33880,10 +33897,10 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
-      <c r="A29" s="78">
+      <c r="A29" s="65">
         <v>26</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="63" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -33911,10 +33928,10 @@
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="78">
+      <c r="A30" s="65">
         <v>27</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="63" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -33942,10 +33959,10 @@
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
-      <c r="A31" s="78">
+      <c r="A31" s="65">
         <v>28</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="63" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -33980,8 +33997,9 @@
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="24" t="s">
-        <v>67</v>
+      <c r="F32" s="24">
+        <f>SUM(F4:F31)</f>
+        <v>91</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="24">
@@ -33991,7 +34009,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="24">
         <f>SUM(J4:J31)</f>
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1">
